--- a/data/UG/LA-BTech.xlsx
+++ b/data/UG/LA-BTech.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="337">
   <si>
     <t xml:space="preserve">Please duplicate this document and give it your department's name before sharing it with us. (e.g. "Biomedical Engineering")</t>
   </si>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">LA1020</t>
   </si>
   <si>
-    <t xml:space="preserve">PSYCHOLOGY OF WELL_BEING</t>
+    <t xml:space="preserve">PSYCHOLOGY OF WELL BEING</t>
   </si>
   <si>
     <t xml:space="preserve">Well being is one of the most popular topics in positive psychology. This is a relatively new approach that focuses on positive aspects as opposed to the psychopathological perspective of traditional psychology. This course will trace research in the area of well being. Relevant concepts such as positive emotions, character strengths and resilience will be introduced and their relation to well being will be examined. Positive psychology interventions that enhance subjective well being and meaningfulness in life will be explored.</t>
@@ -1076,7 +1076,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1101,26 +1101,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1165,7 +1158,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1189,17 +1182,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,27 +1200,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1235,56 +1220,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1421,7 +1392,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="3" width="14.43"/>
   </cols>
@@ -1503,254 +1474,253 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F13"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1862,17 +1832,17 @@
   </sheetPr>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="65.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="65.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="89.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="14.43"/>
@@ -2580,394 +2550,394 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11" t="n">
+      <c r="D27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11" t="n">
+      <c r="D28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="n">
+      <c r="D29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11" t="n">
+      <c r="D30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11" t="n">
+      <c r="D31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="n">
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11" t="n">
+      <c r="D33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12" t="s">
+      <c r="D34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11" t="n">
+      <c r="D35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="n">
+      <c r="D36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11" t="n">
+      <c r="D37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11" t="n">
+      <c r="D38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="n">
+      <c r="D39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11" t="n">
+      <c r="D40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11" t="n">
+      <c r="D41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11" t="n">
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11" t="n">
+      <c r="D43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
@@ -4145,155 +4115,155 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="s">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D86" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E86" s="11" t="n">
+      <c r="D86" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D87" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" s="11" t="n">
+      <c r="D87" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D88" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E88" s="11" t="n">
+      <c r="D88" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11" t="s">
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D89" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" s="11" t="n">
+      <c r="D89" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="11" t="s">
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" s="11" t="n">
+      <c r="D90" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E91" s="11" t="n">
+      <c r="D91" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
